--- a/sampleAssetData.xlsx
+++ b/sampleAssetData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="equipment" sheetId="1" r:id="rId1"/>
+    <sheet name="reports" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>description</t>
   </si>
@@ -130,12 +131,30 @@
   </si>
   <si>
     <t>W522</t>
+  </si>
+  <si>
+    <t>reportName</t>
+  </si>
+  <si>
+    <t>All Assets</t>
+  </si>
+  <si>
+    <t>Due this month</t>
+  </si>
+  <si>
+    <t>All Active equipment</t>
+  </si>
+  <si>
+    <t>Equipment removed from service</t>
+  </si>
+  <si>
+    <t>Destroyed equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,12 +180,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +211,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -224,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,7 +543,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,12 +758,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
